--- a/days/2022-03-12/task-26/26-demo.xlsx
+++ b/days/2022-03-12/task-26/26-demo.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="12885"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="27480" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="26-demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F568" sqref="F568:G568"/>
+    <sheetView tabSelected="1" topLeftCell="A562" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H568" sqref="H568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
